--- a/MobileFramework/db/result.xlsx
+++ b/MobileFramework/db/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="38">
   <si>
     <t>Bucket_Id</t>
   </si>
@@ -46,16 +46,16 @@
     <t>Smart Data Rate$ACTIVE</t>
   </si>
   <si>
-    <t>1 Kbytes</t>
-  </si>
-  <si>
-    <t>27-Dec-2017</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Data</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>09-Jan-2018</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>LocalSMS</t>
   </si>
   <si>
     <t>653</t>
@@ -64,82 +64,76 @@
     <t>Local Data</t>
   </si>
   <si>
-    <t>7276608 Kbytes</t>
+    <t>7273152</t>
   </si>
   <si>
     <t>25-Jan-2018</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>LocalData</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Free Local minutes pack</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>31-Dec-2018</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>PRMBAL</t>
   </si>
   <si>
     <t>Primary Balance</t>
   </si>
   <si>
-    <t>92.2000 QAR</t>
-  </si>
-  <si>
-    <t>13-Jun-2018</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Local</t>
+    <t>411.6500</t>
+  </si>
+  <si>
+    <t>28-Dec-2018</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>N49</t>
-  </si>
-  <si>
-    <t>Flex 20 Weekly</t>
-  </si>
-  <si>
-    <t>200 FLEX</t>
-  </si>
-  <si>
-    <t>02-Jan-2018</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>Sms</t>
-  </si>
-  <si>
-    <t>7275712 Kbytes</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>71.6500 QAR</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>199 FLEX</t>
-  </si>
-  <si>
-    <t>7275648 Kbytes</t>
-  </si>
-  <si>
-    <t>198 FLEX</t>
-  </si>
-  <si>
-    <t>7275584 Kbytes</t>
-  </si>
-  <si>
-    <t>197 FLEX</t>
+    <t>610</t>
+  </si>
+  <si>
+    <t>Free Local Calls</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>11-Jan-2018</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>Free Mobile Internet</t>
+  </si>
+  <si>
+    <t>441.6500</t>
+  </si>
+  <si>
+    <t>441.1000</t>
   </si>
 </sst>
 </file>
@@ -459,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="A2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,301 +488,301 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -796,22 +790,62 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
         <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -822,10 +856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,181 +889,181 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1037,122 +1071,102 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/MobileFramework/db/result.xlsx
+++ b/MobileFramework/db/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pre" sheetId="1" r:id="rId1"/>
-    <sheet name="post" sheetId="2" r:id="rId2"/>
+    <sheet name="pre" r:id="rId1" sheetId="1"/>
+    <sheet name="post" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14490" uniqueCount="62">
   <si>
     <t>Bucket_Id</t>
   </si>
@@ -40,6 +40,21 @@
     <t>Type</t>
   </si>
   <si>
+    <t>SubType</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>Kbytes</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>LocalData</t>
+  </si>
+  <si>
     <t>D44</t>
   </si>
   <si>
@@ -49,91 +64,148 @@
     <t>1</t>
   </si>
   <si>
-    <t>09-Jan-2018</t>
-  </si>
-  <si>
     <t>360</t>
   </si>
   <si>
-    <t>LocalSMS</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>Local Data</t>
-  </si>
-  <si>
-    <t>7273152</t>
-  </si>
-  <si>
-    <t>25-Jan-2018</t>
+    <t>N49</t>
+  </si>
+  <si>
+    <t>Flex 20 Weekly</t>
+  </si>
+  <si>
+    <t>23-Jan-2018</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>FLEX</t>
+  </si>
+  <si>
+    <t>PRMBAL</t>
+  </si>
+  <si>
+    <t>Primary Balance</t>
+  </si>
+  <si>
+    <t>16-Feb-2018</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>LocalCall,InternationalCall,LocalSMS,LocalData,InternationalCall,RoamData</t>
+  </si>
+  <si>
+    <t>N73</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+  <si>
+    <t>994.68</t>
+  </si>
+  <si>
+    <t>21-Jan-2018</t>
+  </si>
+  <si>
+    <t>178.0000</t>
+  </si>
+  <si>
+    <t>989.68</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>984.68</t>
+  </si>
+  <si>
+    <t>979.68</t>
+  </si>
+  <si>
+    <t>978.68</t>
+  </si>
+  <si>
+    <t>973.68</t>
+  </si>
+  <si>
+    <t>972.68</t>
+  </si>
+  <si>
+    <t>971.68</t>
+  </si>
+  <si>
+    <t>970.68</t>
+  </si>
+  <si>
+    <t>965.68</t>
+  </si>
+  <si>
+    <t>964.68</t>
+  </si>
+  <si>
+    <t>963.68</t>
+  </si>
+  <si>
+    <t>962.68</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>Free Vodafone-International Calls</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>LocalCall</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>Free Local Calls</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>Free Mobile Internet</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>LocalData</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Free Local minutes pack</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>31-Dec-2018</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>PRMBAL</t>
-  </si>
-  <si>
-    <t>Primary Balance</t>
-  </si>
-  <si>
-    <t>411.6500</t>
-  </si>
-  <si>
-    <t>28-Dec-2018</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>Free Local Calls</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>11-Jan-2018</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>Free Mobile Internet</t>
-  </si>
-  <si>
-    <t>441.6500</t>
-  </si>
-  <si>
-    <t>441.1000</t>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>22-Mar-2018</t>
+  </si>
+  <si>
+    <t>961.68</t>
+  </si>
+  <si>
+    <t>22-Jan-2018</t>
+  </si>
+  <si>
+    <t>960.68</t>
+  </si>
+  <si>
+    <t>951.68</t>
+  </si>
+  <si>
+    <t>24-Jan-2018</t>
+  </si>
+  <si>
+    <t>950.68</t>
   </si>
 </sst>
 </file>
@@ -168,17 +240,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -195,10 +270,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -233,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,7 +343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -362,21 +437,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -393,7 +468,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -445,37 +520,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
-    <col min="5" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" style="1" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="68.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -487,389 +564,1575 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
         <v>23</v>
       </c>
+      <c r="F68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="68.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -888,288 +2151,1069 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>